--- a/data/trans_camb/P17G_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P17G_R-Provincia-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>9.166999930822545</v>
+        <v>8.416200567699345</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-15.47428569635255</v>
+        <v>-17.32391406788958</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.736453997898595</v>
+        <v>1.708902674559875</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.5494335791566249</v>
+        <v>1.486925770158174</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-5.89792126471314</v>
+        <v>-4.940363109316836</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-8.616761221945174</v>
+        <v>-8.267348254488541</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>7.211291702478034</v>
+        <v>7.37226525042882</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-7.073273466223753</v>
+        <v>-6.497045767605779</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.354252050758451</v>
+        <v>-1.51430062182911</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>33.91605002243136</v>
+        <v>34.83176119845183</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>16.49024273809129</v>
+        <v>14.64811442409511</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>29.41554427428724</v>
+        <v>30.78328088797416</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17.93371766707788</v>
+        <v>18.36708645833595</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>13.22708690559393</v>
+        <v>13.21003089826385</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>9.677047321115417</v>
+        <v>8.907103665327709</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>20.81662402553297</v>
+        <v>22.04484859191865</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>10.82743215685134</v>
+        <v>10.80334092999543</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>13.68106738980514</v>
+        <v>13.77248504171502</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.1081837433937554</v>
+        <v>0.09650790992522439</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1813464563232275</v>
+        <v>-0.2051114540548392</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.01205958774796631</v>
+        <v>0.02516272251336165</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.005712982391179388</v>
+        <v>0.01599605262920379</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.06168304297816599</v>
+        <v>-0.05184883894302436</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.09035386950405566</v>
+        <v>-0.08716089246426689</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08068011035209789</v>
+        <v>0.08312422039821324</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.08032754192138823</v>
+        <v>-0.0713624983421436</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.01497370954647486</v>
+        <v>-0.01583235276522798</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.540716469174204</v>
+        <v>0.5337471587831986</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2554173307240418</v>
+        <v>0.2141221598592377</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.4664476849244557</v>
+        <v>0.4940801131955707</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.2218645371101065</v>
+        <v>0.22791436107542</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1612684755024225</v>
+        <v>0.1615350971482325</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1193533952010041</v>
+        <v>0.1095201037198518</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2705680596373243</v>
+        <v>0.2890705197116198</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1360177079237924</v>
+        <v>0.1386654551298361</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.1795903233920755</v>
+        <v>0.176604028990686</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>4.122248028463805</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-1.117780590363282</v>
+        <v>-1.11778059036326</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>4.507923719454054</v>
@@ -869,7 +869,7 @@
         <v>5.660042169800217</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>1.264322639082249</v>
+        <v>1.26432263908226</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>2.671150160056446</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-9.058542927647244</v>
+        <v>-9.069134014682447</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.421273030081741</v>
+        <v>-2.771263657816938</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-10.13035049091664</v>
+        <v>-11.02299691152404</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.9566621335172453</v>
+        <v>-1.298583822967964</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4528646574916174</v>
+        <v>0.4153710720923773</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-5.792813243807554</v>
+        <v>-4.797112823378943</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.329962400514968</v>
+        <v>-2.508182334379887</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.5587193390341132</v>
+        <v>1.082221039022265</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-5.320832206305779</v>
+        <v>-6.478317896986543</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.877048303836942</v>
+        <v>10.07239916852004</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>13.44606343784568</v>
+        <v>13.21615304364703</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.764661476628744</v>
+        <v>8.550968913280272</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11.43335503484005</v>
+        <v>10.4827121366114</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>11.66971872122101</v>
+        <v>11.35689561117499</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>8.651340128850959</v>
+        <v>8.064061050318116</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>7.827270834993547</v>
+        <v>7.585241670178418</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>10.05646456590608</v>
+        <v>10.71301992490591</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>5.591873381571126</v>
+        <v>5.841280702577919</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.04514789518542582</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.01224221361392252</v>
+        <v>-0.01224221361392228</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.04962871057554315</v>
@@ -974,7 +974,7 @@
         <v>0.06231263263798162</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01391920232774457</v>
+        <v>0.0139192023277447</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.0293458458227091</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.09607689748915943</v>
+        <v>-0.09587204994350677</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.02519505958213061</v>
+        <v>-0.02775594851335037</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1088126168018305</v>
+        <v>-0.117916284666877</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.009713584302659841</v>
+        <v>-0.01422907413157448</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.00541172822847941</v>
+        <v>0.004456168141753663</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.06181812816584521</v>
+        <v>-0.05138444427342581</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.02345499942797325</v>
+        <v>-0.02509254385475825</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.004329766343040166</v>
+        <v>0.01154013320771948</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.05685460726144786</v>
+        <v>-0.06882399798828717</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1183155185295301</v>
+        <v>0.1166203144316952</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1601704084878486</v>
+        <v>0.157758337010552</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1035672605835093</v>
+        <v>0.09896574735202281</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1335906074172849</v>
+        <v>0.1216590137009203</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1372766988392915</v>
+        <v>0.1323481988034521</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1025005296865283</v>
+        <v>0.09345725967558191</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.08991361300242662</v>
+        <v>0.08645839592173825</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1155905585130941</v>
+        <v>0.1241812409946462</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.06332695211652298</v>
+        <v>0.06687758250563786</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-1.901703412945488</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-5.023181537315868</v>
+        <v>-5.023181537315846</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.4606922988645179</v>
@@ -1092,7 +1092,7 @@
         <v>-2.679813415340837</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-4.016727513515272</v>
+        <v>-4.016727513515295</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-6.935994347417335</v>
+        <v>-6.815731460511547</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-12.44867129967485</v>
+        <v>-11.7630960581843</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-11.40623962952302</v>
+        <v>-10.91670097848205</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-5.539526057397562</v>
+        <v>-5.711940698911494</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-7.700601611168215</v>
+        <v>-8.090847888324054</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-11.22730164452295</v>
+        <v>-11.06603378854297</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-3.858750907134253</v>
+        <v>-3.995316063134143</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-7.973452362821966</v>
+        <v>-7.794958771691118</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-9.419885180829693</v>
+        <v>-9.605055766113688</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>11.37274023967483</v>
+        <v>11.96671936891038</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.503287461071324</v>
+        <v>8.340096856088291</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.18223041724305</v>
+        <v>9.119800468795525</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.772224329302118</v>
+        <v>5.442230359165036</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.723331564753249</v>
+        <v>3.582135459475694</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.7719656033594013</v>
+        <v>0.8301494199546882</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>5.206509160222176</v>
+        <v>5.478948725616375</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.379577750963867</v>
+        <v>2.717855496789178</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.733373185102305</v>
+        <v>1.232884762412928</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.0197578076605128</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.05218850320324414</v>
+        <v>-0.05218850320324391</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.004834780088473065</v>
@@ -1197,7 +1197,7 @@
         <v>-0.02812356224153666</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.04215393713120581</v>
+        <v>-0.04215393713120604</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.07053690777804199</v>
+        <v>-0.07058955166907266</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1290297949935247</v>
+        <v>-0.1215817920552344</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1180882490509325</v>
+        <v>-0.1120156132562741</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.05621306397192465</v>
+        <v>-0.05766974189537091</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.07900905901278477</v>
+        <v>-0.08592913932896401</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.117075959925622</v>
+        <v>-0.1140357305104953</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.03957407126889292</v>
+        <v>-0.04093271697525688</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.08200199260971515</v>
+        <v>-0.07998561580676607</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1003943156021204</v>
+        <v>-0.09883277109289995</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1306441834704203</v>
+        <v>0.141080898279014</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.08484909966553303</v>
+        <v>0.09550497061627541</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.09207043394679479</v>
+        <v>0.1038631077497135</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.05049307910845331</v>
+        <v>0.05835680983734986</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.03948358189002433</v>
+        <v>0.03653727587412957</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.008257707069622797</v>
+        <v>0.008660687592506306</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.05644948283431782</v>
+        <v>0.05963181389262379</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.02519446907112846</v>
+        <v>0.02910706960681376</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.00774143506930565</v>
+        <v>0.01235449550477574</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>0.15159137377595</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-5.648412358734712</v>
+        <v>-5.648412358734689</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>2.05170974124349</v>
@@ -1297,7 +1297,7 @@
         <v>-4.869460366346168</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-3.202018672353979</v>
+        <v>-3.20201867235399</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-0.8678183911798087</v>
@@ -1306,7 +1306,7 @@
         <v>-2.874679685693227</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-4.22769817015316</v>
+        <v>-4.227698170153149</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-16.36299589776625</v>
+        <v>-17.45001595828883</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-7.64993398802478</v>
+        <v>-7.974030619855547</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-15.39506824076908</v>
+        <v>-15.68428100750323</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.806014366567933</v>
+        <v>-2.906356581570862</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-12.63781739080721</v>
+        <v>-12.83311126916175</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-9.457259633493301</v>
+        <v>-9.925302002814414</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-6.427787056493504</v>
+        <v>-6.895278154255978</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-8.033078703060877</v>
+        <v>-7.924239173427345</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-9.54106998799184</v>
+        <v>-9.636877711553293</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.371919174609838</v>
+        <v>3.916114501149268</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>8.019433107611174</v>
+        <v>7.666210901678508</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.297779180013157</v>
+        <v>3.648148142295046</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.225830420852984</v>
+        <v>7.098192090782705</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.213583754885431</v>
+        <v>1.753659573582797</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.788155155308261</v>
+        <v>2.416237729589703</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.959347141003054</v>
+        <v>3.935063932724705</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.552109521287635</v>
+        <v>2.316057176826519</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.7005633634999926</v>
+        <v>0.9322366497006443</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.001601860712899248</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.05968657465354515</v>
+        <v>-0.05968657465354491</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.02170939762993654</v>
@@ -1402,7 +1402,7 @@
         <v>-0.05152436975424962</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.03388096043960067</v>
+        <v>-0.03388096043960079</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.00917880139035491</v>
@@ -1411,7 +1411,7 @@
         <v>-0.03040511029040741</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.04471580947880885</v>
+        <v>-0.04471580947880873</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1705095597657227</v>
+        <v>-0.1814493346674673</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.07813974354127333</v>
+        <v>-0.0811478020835482</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1601216919702314</v>
+        <v>-0.1621265022574846</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.02876956683532418</v>
+        <v>-0.03015257369946851</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1331095697954066</v>
+        <v>-0.1346977634091092</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.09800453969369176</v>
+        <v>-0.1025870298299957</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.06720004603264597</v>
+        <v>-0.07066235190028317</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.08365193959036787</v>
+        <v>-0.0823901774899372</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.09941471730026984</v>
+        <v>-0.1014993049109469</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.04748406599634999</v>
+        <v>0.04141412487529152</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.08965985602418419</v>
+        <v>0.0871219874063202</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.03577096763705234</v>
+        <v>0.03761404033020584</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.07953252664748316</v>
+        <v>0.07733777834652983</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.02321134107040853</v>
+        <v>0.01883857945389044</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.02987532983958631</v>
+        <v>0.02689958945433936</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.04266783445006653</v>
+        <v>0.04254652484528523</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.02638843037055609</v>
+        <v>0.02506354354237424</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.007059900908290495</v>
+        <v>0.008865443059472546</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-7.817540103730924</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.2553767898078707</v>
+        <v>0.2553767898078818</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-0.2752097594003633</v>
@@ -1511,7 +1511,7 @@
         <v>2.438888396968519</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-7.640602380636496</v>
+        <v>-7.640602380636485</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-1.066161590107617</v>
@@ -1520,7 +1520,7 @@
         <v>-1.297995782244188</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-4.550663559957203</v>
+        <v>-4.550663559957235</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-14.40621645751858</v>
+        <v>-14.54416926791059</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-29.76515275538893</v>
+        <v>-27.7999072983586</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-15.52345747552901</v>
+        <v>-14.52714763910985</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-7.293186104321232</v>
+        <v>-7.183318649706893</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-5.432061477979685</v>
+        <v>-5.374117616873474</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-20.2019735473152</v>
+        <v>-20.91668156372889</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-7.387116979687221</v>
+        <v>-7.74013229090458</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-10.63407920287251</v>
+        <v>-10.47322040643325</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-12.99830508496825</v>
+        <v>-14.59902350756653</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>9.42209882366833</v>
+        <v>9.264963809603973</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>6.364479200945571</v>
+        <v>6.474715533945622</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>12.30314719825129</v>
+        <v>12.08292581442812</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>9.066160801476721</v>
+        <v>8.269223556712632</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>10.83674334875756</v>
+        <v>10.27627987554326</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.370429693719734</v>
+        <v>2.386714495670863</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>6.222669233676785</v>
+        <v>6.309931932112544</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>6.235578858944031</v>
+        <v>6.372620368464105</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.876846996359276</v>
+        <v>3.129233541516601</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.08499732520383795</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.002776620748316007</v>
+        <v>0.002776620748316128</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.002935968072015075</v>
@@ -1616,7 +1616,7 @@
         <v>0.02601833045568277</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.08151078904101361</v>
+        <v>-0.08151078904101348</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.01145366037173502</v>
@@ -1625,7 +1625,7 @@
         <v>-0.01394423039782254</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.04888729378866416</v>
+        <v>-0.04888729378866451</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1547396759884971</v>
+        <v>-0.1523932087742605</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3098194804534286</v>
+        <v>-0.3023416406333138</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1632699508236362</v>
+        <v>-0.1535465978697623</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.07608881290406651</v>
+        <v>-0.07415773080944593</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.05640632154419273</v>
+        <v>-0.05501154158519628</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.210805345603531</v>
+        <v>-0.2208742923685476</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.07738926529091245</v>
+        <v>-0.08011353371948331</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.1115426953048967</v>
+        <v>-0.1134057957244797</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.1398685899113712</v>
+        <v>-0.152240306366739</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1095032898340597</v>
+        <v>0.1054405975250661</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.07213342777731349</v>
+        <v>0.07135175167262581</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.1458050291133786</v>
+        <v>0.1381908276639766</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.104643474718827</v>
+        <v>0.09512026603614798</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.123170729349939</v>
+        <v>0.1188144491653964</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.02623546767431389</v>
+        <v>0.0248486336382071</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.06919736699437444</v>
+        <v>0.07185709016454929</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.06788361665008173</v>
+        <v>0.070634338993639</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.0310019110527261</v>
+        <v>0.03393100115659423</v>
       </c>
     </row>
     <row r="34">
@@ -1734,7 +1734,7 @@
         <v>3.156181261222046</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>0.9236227054124191</v>
+        <v>0.923622705412408</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>2.106993332166265</v>
+        <v>2.009804937825651</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-0.04291919169652517</v>
+        <v>-0.6663809163516905</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-0.9563485006237509</v>
+        <v>-1.500528901615151</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>1.157965884645918</v>
+        <v>1.118784562802954</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-3.246032381277684</v>
+        <v>-3.600746745002255</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-9.070130872198986</v>
+        <v>-8.779346362984334</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>2.831774050098815</v>
+        <v>2.23946396112956</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-0.5814217357310449</v>
+        <v>-0.4418660504289059</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-3.75193621156148</v>
+        <v>-3.580867109740879</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>18.57451661149736</v>
+        <v>18.49009542077913</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>16.80372104972061</v>
+        <v>17.14549035870909</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>15.97598149134421</v>
+        <v>15.53584327730034</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>11.11022484856201</v>
+        <v>11.04676128168678</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>7.631087044464266</v>
+        <v>6.422980526091078</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>4.372202728655188</v>
+        <v>4.434234834831807</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>10.95068984504936</v>
+        <v>11.14437777914232</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>8.256541366853494</v>
+        <v>8.395833413056989</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>5.736477838480615</v>
+        <v>6.60055827112695</v>
       </c>
     </row>
     <row r="37">
@@ -1839,7 +1839,7 @@
         <v>0.03347839276556958</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.009797093747088032</v>
+        <v>0.009797093747087916</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.02152324281249089</v>
+        <v>0.0205102414225286</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.0001753241529984481</v>
+        <v>-0.00634744460947204</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.009798847745962709</v>
+        <v>-0.01147970945212678</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.0117147521680706</v>
+        <v>0.01131423041730213</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.03358269410353037</v>
+        <v>-0.03655728461149456</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.09288897700829965</v>
+        <v>-0.09043073528133534</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.02914296777421343</v>
+        <v>0.02290716801271817</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.005820461941319418</v>
+        <v>-0.004890318502012046</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.0385037221495979</v>
+        <v>-0.03737596018501031</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.2281102374345937</v>
+        <v>0.2268408746311639</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.207447475212853</v>
+        <v>0.2100534190429104</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.1967036282203566</v>
+        <v>0.1988204212647761</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.1249883624001627</v>
+        <v>0.1241861202721827</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.08478371218248439</v>
+        <v>0.07024429245822944</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.04740461626482777</v>
+        <v>0.04858046550243587</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1229731877419713</v>
+        <v>0.1254209513118927</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.09228294978173057</v>
+        <v>0.09311405425614076</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.06314221300270563</v>
+        <v>0.07346906174599335</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>0.8218227770950826</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-9.872425480473145</v>
+        <v>-9.872425480473124</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>-0.9149680307706132</v>
@@ -1939,7 +1939,7 @@
         <v>0.6356320382551739</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>-10.00938003668601</v>
+        <v>-10.00938003668602</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>-0.9558975400765557</v>
@@ -1948,7 +1948,7 @@
         <v>0.6433239946261438</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>-9.962648807050856</v>
+        <v>-9.962648807050867</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-6.146787639079743</v>
+        <v>-6.807449205832568</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-5.504304271586792</v>
+        <v>-5.55729054738767</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-18.64034406131017</v>
+        <v>-18.78463559335783</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-5.992788291668711</v>
+        <v>-5.814794688970239</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-3.790044533583113</v>
+        <v>-4.042872059076435</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-15.48921550023769</v>
+        <v>-15.07303095651368</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-4.948014961954629</v>
+        <v>-4.807923634508904</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-3.045467918691272</v>
+        <v>-2.876888536749861</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-14.79238708132683</v>
+        <v>-14.48156962176184</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>5.161770189628044</v>
+        <v>4.560872818170339</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>6.298448645415291</v>
+        <v>6.599524016528774</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-2.775639419759858</v>
+        <v>-2.201298262917737</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>3.529803057150042</v>
+        <v>4.019453621971863</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>5.04634494723391</v>
+        <v>5.131616000011801</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-4.875087821155743</v>
+        <v>-4.094135846853519</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>2.886057926908367</v>
+        <v>3.008405502459509</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>4.443370725921936</v>
+        <v>4.280456435627669</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-5.43595983806622</v>
+        <v>-5.528677854990045</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>0.008861517138312965</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.1064519870101004</v>
+        <v>-0.1064519870101002</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>-0.009709027222526612</v>
@@ -2044,7 +2044,7 @@
         <v>0.006744900975099481</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>-0.1062128292886363</v>
+        <v>-0.1062128292886365</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>-0.01020774459819431</v>
@@ -2053,7 +2053,7 @@
         <v>0.006869864975808887</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>-0.1063881538347046</v>
+        <v>-0.1063881538347047</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.06465896966868308</v>
+        <v>-0.07185299268919271</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.05702155470931145</v>
+        <v>-0.05902189225654737</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.1953706997502577</v>
+        <v>-0.201114404143255</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.06231539092985407</v>
+        <v>-0.06050309333160053</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.0401278740904738</v>
+        <v>-0.0415268488790345</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.1612977230787734</v>
+        <v>-0.1591204525120103</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.05174776456179096</v>
+        <v>-0.05037279800309247</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.03199425963956986</v>
+        <v>-0.03028048615877885</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.1555966232762498</v>
+        <v>-0.1524488256778259</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.05754570923737218</v>
+        <v>0.05103795779135631</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.07050845886901279</v>
+        <v>0.07408393234753138</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.03033239278808455</v>
+        <v>-0.0249731638433269</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.03800686014917074</v>
+        <v>0.04376514740569741</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.05462973635164092</v>
+        <v>0.05561889972759103</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.05373598873844236</v>
+        <v>-0.04666029257877696</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.03121323162958796</v>
+        <v>0.03343795424221555</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.04833463738740265</v>
+        <v>0.04648439357713328</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.05994881178028699</v>
+        <v>-0.06040374357325901</v>
       </c>
     </row>
     <row r="46">
@@ -2153,7 +2153,7 @@
         <v>-2.312633340093151</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>-0.4824202184274817</v>
+        <v>-0.4824202184275039</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>3.090611298827006</v>
@@ -2162,7 +2162,7 @@
         <v>-1.690726111275997</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>0.6075062327422831</v>
+        <v>0.6075062327423164</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-2.401744702818042</v>
+        <v>-1.628275052179246</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-6.705733029969688</v>
+        <v>-6.995461926952359</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-4.334012322616664</v>
+        <v>-4.04037785939066</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-1.613801640908268</v>
+        <v>-1.647652029778826</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-6.858043831449367</v>
+        <v>-7.766440521969368</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-4.653762103045874</v>
+        <v>-4.880864608611434</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-0.4005918423842076</v>
+        <v>-0.622474004910154</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-5.198294986403202</v>
+        <v>-5.576564593203047</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-2.853957236447509</v>
+        <v>-3.423110375434764</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>10.31205737356686</v>
+        <v>10.6845803052031</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>5.524804295403793</v>
+        <v>6.210411524915278</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>8.370425142818268</v>
+        <v>8.907841287538371</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>6.245331209560183</v>
+        <v>6.105187462418416</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>2.232438271133106</v>
+        <v>2.087974073846086</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>3.946750392690517</v>
+        <v>3.730736643926658</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>6.752195762000075</v>
+        <v>6.243452816542252</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>2.411155014379787</v>
+        <v>2.263392684651861</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>4.575685922106697</v>
+        <v>4.072915936100459</v>
       </c>
     </row>
     <row r="49">
@@ -2258,7 +2258,7 @@
         <v>-0.02457786186203631</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>-0.005126994099067363</v>
+        <v>-0.0051269940990676</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.03348328779976335</v>
@@ -2267,7 +2267,7 @@
         <v>-0.01831711059747785</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.006581644880021022</v>
+        <v>0.006581644880021382</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.02515211711066994</v>
+        <v>-0.01758847265231518</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.07150571732646555</v>
+        <v>-0.07522144569287484</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.04669030534351275</v>
+        <v>-0.04409862129758932</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.01664894448607726</v>
+        <v>-0.01702652065215</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.0715152113385962</v>
+        <v>-0.08116393783355508</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.04843823582691392</v>
+        <v>-0.05133423843905483</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.004021345046941496</v>
+        <v>-0.00698394416993803</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.05543612052712106</v>
+        <v>-0.05926393233575954</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.03021638914850395</v>
+        <v>-0.03630627128378951</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.1204387024737164</v>
+        <v>0.1249751377116768</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.06347436223293984</v>
+        <v>0.07312574709404156</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.09597157638897501</v>
+        <v>0.1060129002865825</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.06888904325840432</v>
+        <v>0.06745285282908921</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.0243387381642558</v>
+        <v>0.02268509434265556</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.04311286106891826</v>
+        <v>0.04108221458309215</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.07535919270711978</v>
+        <v>0.0681948816998301</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.02540989474144107</v>
+        <v>0.02450103520569182</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.05105193166944254</v>
+        <v>0.04557908545172613</v>
       </c>
     </row>
     <row r="52">
@@ -2367,7 +2367,7 @@
         <v>0.06591399137324538</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>-3.91253910018301</v>
+        <v>-3.912539100182999</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>2.296047664741341</v>
@@ -2376,7 +2376,7 @@
         <v>0.2155396722772651</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>-2.845622344079946</v>
+        <v>-2.845622344079934</v>
       </c>
     </row>
     <row r="53">
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-0.3161610224008929</v>
+        <v>-0.4131762790147478</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-2.219507017059047</v>
+        <v>-2.286203233286324</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-4.893589216680058</v>
+        <v>-4.898362862582779</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>0.1669124596515465</v>
+        <v>0.1425292814186752</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-2.151391300219151</v>
+        <v>-2.2790448773381</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-6.126966958305463</v>
+        <v>-6.159059405508762</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>0.8690612352043436</v>
+        <v>0.6683008580106251</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-1.494925591451982</v>
+        <v>-1.440731557889648</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>-4.992397317818502</v>
+        <v>-4.778786133400018</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>5.478623434701936</v>
+        <v>5.880050912045133</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>3.626463922621501</v>
+        <v>3.830630259207688</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>1.86959334597359</v>
+        <v>2.575314075004782</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>4.00180939939249</v>
+        <v>4.17313354172977</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>2.188922762968804</v>
+        <v>2.150821926969599</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>-1.587893655022027</v>
+        <v>-1.498124788625038</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>4.050054184701212</v>
+        <v>4.017535529100884</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>1.944182535208722</v>
+        <v>1.943137921678391</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>-1.023581148039376</v>
+        <v>-0.792602341088962</v>
       </c>
     </row>
     <row r="55">
@@ -2472,7 +2472,7 @@
         <v>0.0007027716482500122</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>-0.04171529435546078</v>
+        <v>-0.04171529435546066</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>0.02480709416610304</v>
@@ -2481,7 +2481,7 @@
         <v>0.002328746492863186</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>-0.03074484146595908</v>
+        <v>-0.03074484146595896</v>
       </c>
     </row>
     <row r="56">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.003139644900880711</v>
+        <v>-0.004443496846032098</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.02394041606934784</v>
+        <v>-0.02463985840019334</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.05290832025157115</v>
+        <v>-0.05298853518009157</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.001825585616299491</v>
+        <v>0.001498013037996611</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.02267415124394357</v>
+        <v>-0.02406599035099046</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.06479924502359169</v>
+        <v>-0.06492615095345128</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.009245212430339551</v>
+        <v>0.007136399431713058</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.01593641568105026</v>
+        <v>-0.01540885953441667</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>-0.05352334904587975</v>
+        <v>-0.05115745317386894</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.06179894415625932</v>
+        <v>0.06611583573908275</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.0403602536594285</v>
+        <v>0.04301796168634511</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.0209610440914319</v>
+        <v>0.02877833042295171</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.04330020190190602</v>
+        <v>0.04509222080510147</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.02371019237758882</v>
+        <v>0.02315132669740678</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>-0.01727264339839892</v>
+        <v>-0.01597934492012059</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.04415963265631254</v>
+        <v>0.04388598726591117</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.02115303630181926</v>
+        <v>0.0214866346694983</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>-0.01125936439284587</v>
+        <v>-0.008748060231073058</v>
       </c>
     </row>
     <row r="58">
